--- a/Agosto/16 agosto/escarcega/PLANTILLA LISTA DE ASPIRANTES 16 DE AGOSTO.xlsx
+++ b/Agosto/16 agosto/escarcega/PLANTILLA LISTA DE ASPIRANTES 16 DE AGOSTO.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_7EC04E3EC923C6C925827FE48FEEAA0D0C504932" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Proyecto01TICs\Documents\Evaluatec2024\Agosto\16 agosto\escarcega\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52CF574-E9EF-4F25-8E2E-F0DA0EB5777B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="351">
   <si>
     <t>INDICAR SI EL ASPIRANTE DEBE PRESENTARSE EN EL PLANTEL PARA REALIZAR EL EXAMEN</t>
   </si>
@@ -1075,6 +1080,15 @@
   </si>
   <si>
     <t>emanuel.najera.2002@gmail.com</t>
+  </si>
+  <si>
+    <t>04260</t>
+  </si>
+  <si>
+    <t>2024/08/16 09:00</t>
+  </si>
+  <si>
+    <t>2024/08/16 13:00</t>
   </si>
 </sst>
 </file>
@@ -1147,18 +1161,12 @@
       <name val="Calibri, sans-serif"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1189,66 +1197,189 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="18" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1276,9 +1407,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Hoja1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="19"/>
+      <tableStyleElement type="firstRowStripe" dxfId="18"/>
+      <tableStyleElement type="secondRowStripe" dxfId="17"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1293,21 +1424,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A4:M82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A4:M81" headerRowDxfId="3" dataDxfId="1" totalsRowDxfId="2">
+  <autoFilter ref="A4:M81" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:M81">
+    <sortCondition descending="1" ref="K4:K81"/>
+  </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="FICHA"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NOMBRE ASPIRANTE"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CURP"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CORREO ELECTRONICO"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CLAVE CARRERA"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CARRERA"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="VERSION"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="FECHA SIMULACRO"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="HORA DE SIMULACRO"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="FECHA APLICACIÓN OFICIAL"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="HORA APLICACIÓN OFICIAL"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="¿ASPIRANTE EN PLANTEL?"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="AULA"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="FICHA" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NOMBRE ASPIRANTE" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CURP" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CORREO ELECTRONICO" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CLAVE CARRERA" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CARRERA" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="VERSION" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="FECHA SIMULACRO" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="HORA DE SIMULACRO" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="FECHA APLICACIÓN OFICIAL" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="HORA APLICACIÓN OFICIAL" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="¿ASPIRANTE EN PLANTEL?" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="AULA" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="Hoja1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1511,25 +1646,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z929"/>
+  <dimension ref="A1:Z928"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:N1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="29.625" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="16.625" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="9" width="16.125" customWidth="1"/>
-    <col min="10" max="10" width="22.375" customWidth="1"/>
-    <col min="11" max="11" width="21.875" customWidth="1"/>
-    <col min="12" max="12" width="25.25" customWidth="1"/>
-    <col min="13" max="13" width="18.625" customWidth="1"/>
-    <col min="14" max="26" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="6" width="28.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="3" customWidth="1"/>
+    <col min="8" max="9" width="16.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="22.375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="21.875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="25.25" style="3" customWidth="1"/>
+    <col min="13" max="13" width="18.625" style="3" customWidth="1"/>
+    <col min="14" max="26" width="10.875" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="11.25" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="40.5" customHeight="1">
@@ -1544,7 +1682,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M1" s="1"/>
@@ -1565,20 +1703,22 @@
     <row r="2" spans="1:26" ht="21" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="18"/>
+      <c r="L2" s="6"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="N2" s="20" t="s">
+        <v>349</v>
+      </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1604,9 +1744,11 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="18"/>
+      <c r="L3" s="6"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="N3" s="20" t="s">
+        <v>350</v>
+      </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1633,25 +1775,25 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -1675,41 +1817,41 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="A5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="13">
         <v>45520</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1725,41 +1867,41 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>25</v>
+      <c r="A6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>77</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="13">
         <v>45520</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1775,41 +1917,41 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>29</v>
+      <c r="A7" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>81</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="13">
         <v>45520</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -1825,41 +1967,41 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>33</v>
+      <c r="A8" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>85</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="13">
         <v>45520</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -1875,41 +2017,45 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>37</v>
+      <c r="A9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>89</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="13">
         <v>45520</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="L9" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1925,41 +2071,41 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>41</v>
+      <c r="A10" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>20</v>
+        <v>95</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="13">
         <v>45520</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1975,41 +2121,41 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>45</v>
+      <c r="A11" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>99</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="13">
         <v>45520</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -2025,41 +2171,41 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>49</v>
+      <c r="A12" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>103</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="13">
         <v>45520</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -2075,41 +2221,41 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>53</v>
+      <c r="A13" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>57</v>
+        <v>107</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="13">
         <v>45520</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -2125,41 +2271,41 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>59</v>
+      <c r="A14" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>57</v>
+        <v>111</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="13">
         <v>45520</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -2175,41 +2321,41 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="A15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="13">
         <v>45520</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -2225,43 +2371,43 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="13" t="s">
+      <c r="A16" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="13">
         <v>45520</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="18"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -2275,41 +2421,41 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>72</v>
+      <c r="A17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>71</v>
+        <v>54</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="13">
         <v>45520</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -2325,41 +2471,41 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>76</v>
+      <c r="A18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>71</v>
+        <v>60</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="13">
         <v>45520</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -2375,41 +2521,41 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>80</v>
+      <c r="A19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="13">
         <v>45520</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -2425,41 +2571,41 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>84</v>
+      <c r="A20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>71</v>
+        <v>17</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="13">
         <v>45520</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -2475,45 +2621,41 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A21" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>88</v>
+      <c r="A21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>71</v>
+        <v>26</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="13">
         <v>45520</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -2529,41 +2671,41 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A22" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>94</v>
+      <c r="A22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>71</v>
+        <v>30</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="13">
         <v>45520</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -2579,41 +2721,41 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>98</v>
+      <c r="A23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>71</v>
+        <v>34</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="13">
         <v>45520</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -2629,41 +2771,41 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A24" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>102</v>
+      <c r="A24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>71</v>
+        <v>38</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="13">
         <v>45520</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -2679,41 +2821,41 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>106</v>
+      <c r="A25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>71</v>
+        <v>42</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="13">
         <v>45520</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -2729,41 +2871,41 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A26" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>110</v>
+      <c r="A26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>71</v>
+        <v>46</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="13">
         <v>45520</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -2779,41 +2921,41 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A27" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="A27" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="13">
         <v>45520</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -2829,41 +2971,41 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>33</v>
+      <c r="A28" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="13">
         <v>45520</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -2879,41 +3021,41 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A29" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>118</v>
+      <c r="A29" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E29" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="12" t="s">
         <v>122</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="13">
         <v>45520</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -2929,41 +3071,41 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A30" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>124</v>
+      <c r="A30" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="12" t="s">
         <v>122</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="13">
         <v>45520</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -2979,41 +3121,41 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A31" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>128</v>
+      <c r="A31" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E31" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="12" t="s">
         <v>122</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="13">
         <v>45520</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -3029,41 +3171,41 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A32" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>132</v>
+      <c r="A32" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="12" t="s">
         <v>122</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="13">
         <v>45520</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -3079,41 +3221,41 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A33" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>136</v>
+      <c r="A33" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E33" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="12" t="s">
         <v>122</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="13">
         <v>45520</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="K33" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -3129,41 +3271,41 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A34" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>140</v>
+      <c r="A34" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>144</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E34" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="12" t="s">
         <v>122</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J34" s="13">
         <v>45520</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K34" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -3179,41 +3321,41 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A35" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>144</v>
+      <c r="A35" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E35" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="12" t="s">
         <v>122</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="8">
+      <c r="J35" s="13">
         <v>45520</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="K35" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -3229,41 +3371,45 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A36" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>148</v>
+      <c r="A36" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E36" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="12" t="s">
         <v>122</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I36" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="13">
         <v>45520</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="K36" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
+      <c r="L36" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -3279,45 +3425,41 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A37" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>152</v>
+      <c r="A37" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E37" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="12" t="s">
         <v>122</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J37" s="13">
         <v>45520</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="K37" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L37" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -3333,41 +3475,41 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A38" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>157</v>
+      <c r="A38" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E38" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="12" t="s">
         <v>122</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I38" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J38" s="8">
+      <c r="J38" s="13">
         <v>45520</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="K38" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -3383,41 +3525,41 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A39" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>161</v>
+      <c r="A39" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E39" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="12" t="s">
         <v>122</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I39" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J39" s="8">
+      <c r="J39" s="13">
         <v>45520</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="K39" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -3433,41 +3575,45 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A40" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>165</v>
+      <c r="A40" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E40" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="12" t="s">
         <v>122</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I40" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J40" s="8">
+      <c r="J40" s="13">
         <v>45520</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="K40" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
+      <c r="L40" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>172</v>
+      </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -3483,44 +3629,44 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A41" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>169</v>
+      <c r="A41" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E41" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E41" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="12" t="s">
         <v>122</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="I41" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J41" s="8">
+      <c r="J41" s="13">
         <v>45520</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="K41" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="L41" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>172</v>
+      <c r="M41" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -3537,45 +3683,41 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A42" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>174</v>
+      <c r="A42" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>122</v>
+        <v>179</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>182</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I42" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J42" s="8">
+      <c r="J42" s="13">
         <v>45520</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="K42" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -3591,41 +3733,41 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A43" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>178</v>
+      <c r="A43" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E43" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E43" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="12" t="s">
         <v>182</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J43" s="8">
+      <c r="J43" s="13">
         <v>45520</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="K43" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -3641,41 +3783,41 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A44" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>184</v>
+      <c r="A44" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>188</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E44" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="12" t="s">
         <v>182</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="I44" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J44" s="8">
+      <c r="J44" s="13">
         <v>45520</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K44" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -3691,41 +3833,41 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A45" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>188</v>
+      <c r="A45" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>192</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E45" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E45" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="12" t="s">
         <v>182</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I45" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J45" s="8">
+      <c r="J45" s="13">
         <v>45520</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K45" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -3741,41 +3883,41 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A46" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>192</v>
+      <c r="A46" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>182</v>
+        <v>240</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>243</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I46" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J46" s="8">
+      <c r="J46" s="13">
         <v>45520</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
+      <c r="K46" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -3791,45 +3933,41 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A47" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>196</v>
+      <c r="A47" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>245</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>182</v>
+        <v>246</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>243</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I47" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J47" s="8">
+      <c r="J47" s="13">
         <v>45520</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="K47" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
@@ -3845,41 +3983,41 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A48" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>201</v>
+      <c r="A48" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>249</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>182</v>
+        <v>250</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>243</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="I48" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J48" s="8">
+      <c r="J48" s="13">
         <v>45520</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="K48" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
@@ -3895,41 +4033,41 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A49" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="G49" s="3" t="s">
+      <c r="A49" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="I49" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J49" s="8">
+      <c r="J49" s="13">
         <v>45520</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K49" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
@@ -3945,41 +4083,41 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A50" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>211</v>
+      <c r="A50" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>209</v>
+        <v>258</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>243</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="I50" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J50" s="8">
+      <c r="J50" s="13">
         <v>45520</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="K50" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
@@ -3995,41 +4133,41 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A51" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>215</v>
+      <c r="A51" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>261</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>209</v>
+        <v>262</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>243</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="I51" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J51" s="8">
+      <c r="J51" s="13">
         <v>45520</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="K51" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
@@ -4045,41 +4183,41 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A52" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>219</v>
+      <c r="A52" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>265</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>209</v>
+        <v>266</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>243</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="I52" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J52" s="8">
+      <c r="J52" s="13">
         <v>45520</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="K52" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
@@ -4095,41 +4233,41 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A53" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>223</v>
+      <c r="A53" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>269</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>209</v>
+        <v>270</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>243</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="I53" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J53" s="8">
+      <c r="J53" s="13">
         <v>45520</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="K53" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
@@ -4145,41 +4283,41 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A54" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>227</v>
+      <c r="A54" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>273</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>209</v>
+        <v>274</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>243</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="H54" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="I54" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J54" s="8">
+      <c r="J54" s="13">
         <v>45520</v>
       </c>
-      <c r="K54" s="3" t="s">
+      <c r="K54" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
@@ -4195,41 +4333,41 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A55" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>209</v>
+      <c r="A55" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>243</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="I55" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J55" s="8">
+      <c r="J55" s="13">
         <v>45520</v>
       </c>
-      <c r="K55" s="3" t="s">
+      <c r="K55" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
@@ -4245,41 +4383,41 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A56" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G56" s="1" t="s">
+      <c r="A56" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="G56" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H56" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="I56" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J56" s="8">
+      <c r="J56" s="13">
         <v>45520</v>
       </c>
-      <c r="K56" s="3" t="s">
+      <c r="K56" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
@@ -4295,41 +4433,41 @@
       <c r="Z56" s="1"/>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A57" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="E57" s="6" t="s">
+      <c r="A57" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E57" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="H57" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="I57" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="8">
+      <c r="J57" s="13">
         <v>45520</v>
       </c>
-      <c r="K57" s="3" t="s">
+      <c r="K57" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
@@ -4345,41 +4483,41 @@
       <c r="Z57" s="1"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A58" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>245</v>
+      <c r="A58" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>323</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>243</v>
+        <v>324</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>327</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="I58" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J58" s="8">
+      <c r="J58" s="13">
         <v>45520</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="K58" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
@@ -4395,41 +4533,41 @@
       <c r="Z58" s="1"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A59" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>249</v>
+      <c r="A59" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>329</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>243</v>
+        <v>330</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>327</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="H59" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="I59" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J59" s="8">
+      <c r="J59" s="13">
         <v>45520</v>
       </c>
-      <c r="K59" s="3" t="s">
+      <c r="K59" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
@@ -4445,41 +4583,41 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A60" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>253</v>
+      <c r="A60" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>333</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>243</v>
+        <v>334</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>327</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="H60" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I60" s="3" t="s">
+      <c r="I60" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J60" s="8">
+      <c r="J60" s="13">
         <v>45520</v>
       </c>
-      <c r="K60" s="3" t="s">
+      <c r="K60" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
@@ -4495,41 +4633,41 @@
       <c r="Z60" s="1"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A61" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>257</v>
+      <c r="A61" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>337</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>243</v>
+        <v>338</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>327</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="H61" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="I61" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="8">
+      <c r="J61" s="13">
         <v>45520</v>
       </c>
-      <c r="K61" s="3" t="s">
+      <c r="K61" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
@@ -4545,41 +4683,41 @@
       <c r="Z61" s="1"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A62" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>261</v>
+      <c r="A62" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>341</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>243</v>
+        <v>342</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>327</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="H62" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I62" s="3" t="s">
+      <c r="I62" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J62" s="8">
+      <c r="J62" s="13">
         <v>45520</v>
       </c>
-      <c r="K62" s="3" t="s">
+      <c r="K62" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
@@ -4595,41 +4733,41 @@
       <c r="Z62" s="1"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A63" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G63" s="1" t="s">
+      <c r="A63" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="G63" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="H63" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="I63" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J63" s="8">
+      <c r="J63" s="13">
         <v>45520</v>
       </c>
-      <c r="K63" s="3" t="s">
+      <c r="K63" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
@@ -4645,41 +4783,41 @@
       <c r="Z63" s="1"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A64" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>269</v>
+      <c r="A64" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>289</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>243</v>
+        <v>290</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>293</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="H64" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="I64" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J64" s="8">
+      <c r="J64" s="13">
         <v>45520</v>
       </c>
-      <c r="K64" s="3" t="s">
+      <c r="K64" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
@@ -4695,41 +4833,41 @@
       <c r="Z64" s="1"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A65" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>273</v>
+      <c r="A65" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>295</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>243</v>
+        <v>296</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>293</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="H65" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I65" s="3" t="s">
+      <c r="I65" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J65" s="8">
+      <c r="J65" s="13">
         <v>45520</v>
       </c>
-      <c r="K65" s="3" t="s">
+      <c r="K65" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
@@ -4745,41 +4883,41 @@
       <c r="Z65" s="1"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A66" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>243</v>
+      <c r="A66" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>293</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="H66" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="I66" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J66" s="8">
+      <c r="J66" s="13">
         <v>45520</v>
       </c>
-      <c r="K66" s="3" t="s">
+      <c r="K66" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
@@ -4795,41 +4933,41 @@
       <c r="Z66" s="1"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A67" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="G67" s="3" t="s">
+      <c r="A67" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="H67" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="I67" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J67" s="8">
+      <c r="J67" s="13">
         <v>45520</v>
       </c>
-      <c r="K67" s="3" t="s">
+      <c r="K67" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
@@ -4845,41 +4983,41 @@
       <c r="Z67" s="1"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A68" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="G68" s="3" t="s">
+      <c r="A68" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="H68" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I68" s="3" t="s">
+      <c r="I68" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J68" s="8">
+      <c r="J68" s="13">
         <v>45520</v>
       </c>
-      <c r="K68" s="3" t="s">
+      <c r="K68" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
@@ -4895,41 +5033,41 @@
       <c r="Z68" s="1"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A69" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>289</v>
+      <c r="A69" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>311</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="E69" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E69" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="12" t="s">
         <v>293</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H69" s="3" t="s">
+      <c r="H69" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I69" s="3" t="s">
+      <c r="I69" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J69" s="8">
+      <c r="J69" s="13">
         <v>45520</v>
       </c>
-      <c r="K69" s="3" t="s">
+      <c r="K69" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
@@ -4945,41 +5083,41 @@
       <c r="Z69" s="1"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A70" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>295</v>
+      <c r="A70" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>315</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="E70" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E70" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F70" s="12" t="s">
         <v>293</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H70" s="3" t="s">
+      <c r="H70" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="I70" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J70" s="8">
+      <c r="J70" s="13">
         <v>45520</v>
       </c>
-      <c r="K70" s="3" t="s">
+      <c r="K70" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
@@ -4995,41 +5133,41 @@
       <c r="Z70" s="1"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A71" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>299</v>
+      <c r="A71" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>319</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="E71" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="E71" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="12" t="s">
         <v>293</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="H71" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I71" s="3" t="s">
+      <c r="I71" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J71" s="8">
+      <c r="J71" s="13">
         <v>45520</v>
       </c>
-      <c r="K71" s="3" t="s">
+      <c r="K71" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
@@ -5045,41 +5183,45 @@
       <c r="Z71" s="1"/>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A72" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>303</v>
+      <c r="A72" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>196</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>293</v>
+        <v>197</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>182</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H72" s="3" t="s">
+      <c r="H72" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I72" s="3" t="s">
+      <c r="I72" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J72" s="8">
+      <c r="J72" s="13">
         <v>45520</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="K72" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
+      <c r="L72" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M72" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
@@ -5095,41 +5237,41 @@
       <c r="Z72" s="1"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A73" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>307</v>
+      <c r="A73" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>293</v>
+        <v>202</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>182</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H73" s="3" t="s">
+      <c r="H73" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I73" s="3" t="s">
+      <c r="I73" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J73" s="8">
+      <c r="J73" s="13">
         <v>45520</v>
       </c>
-      <c r="K73" s="3" t="s">
+      <c r="K73" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
@@ -5145,41 +5287,41 @@
       <c r="Z73" s="1"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A74" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G74" s="1" t="s">
+      <c r="A74" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="G74" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="H74" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="I74" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J74" s="8">
+      <c r="J74" s="13">
         <v>45520</v>
       </c>
-      <c r="K74" s="3" t="s">
+      <c r="K74" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
@@ -5195,41 +5337,41 @@
       <c r="Z74" s="1"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A75" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>315</v>
+      <c r="A75" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>211</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>293</v>
+        <v>212</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="H75" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I75" s="3" t="s">
+      <c r="I75" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J75" s="8">
+      <c r="J75" s="13">
         <v>45520</v>
       </c>
-      <c r="K75" s="3" t="s">
+      <c r="K75" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
@@ -5245,41 +5387,41 @@
       <c r="Z75" s="1"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A76" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>319</v>
+      <c r="A76" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>215</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>293</v>
+        <v>216</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H76" s="3" t="s">
+      <c r="H76" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I76" s="3" t="s">
+      <c r="I76" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J76" s="8">
+      <c r="J76" s="13">
         <v>45520</v>
       </c>
-      <c r="K76" s="3" t="s">
+      <c r="K76" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
@@ -5295,41 +5437,41 @@
       <c r="Z76" s="1"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A77" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>323</v>
+      <c r="A77" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>327</v>
+        <v>220</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="H77" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I77" s="3" t="s">
+      <c r="I77" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J77" s="8">
+      <c r="J77" s="13">
         <v>45520</v>
       </c>
-      <c r="K77" s="3" t="s">
+      <c r="K77" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
@@ -5345,41 +5487,41 @@
       <c r="Z77" s="1"/>
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A78" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>329</v>
+      <c r="A78" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>223</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>327</v>
+        <v>224</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H78" s="3" t="s">
+      <c r="H78" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I78" s="3" t="s">
+      <c r="I78" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J78" s="8">
+      <c r="J78" s="13">
         <v>45520</v>
       </c>
-      <c r="K78" s="3" t="s">
+      <c r="K78" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
@@ -5395,41 +5537,41 @@
       <c r="Z78" s="1"/>
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A79" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>333</v>
+      <c r="A79" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>227</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>327</v>
+        <v>228</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="H79" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I79" s="3" t="s">
+      <c r="I79" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J79" s="8">
+      <c r="J79" s="13">
         <v>45520</v>
       </c>
-      <c r="K79" s="3" t="s">
+      <c r="K79" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
@@ -5445,41 +5587,41 @@
       <c r="Z79" s="1"/>
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A80" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>337</v>
+      <c r="A80" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>327</v>
+        <v>232</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="H80" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I80" s="3" t="s">
+      <c r="I80" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J80" s="8">
+      <c r="J80" s="13">
         <v>45520</v>
       </c>
-      <c r="K80" s="3" t="s">
+      <c r="K80" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
@@ -5495,41 +5637,41 @@
       <c r="Z80" s="1"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A81" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>341</v>
+      <c r="A81" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>235</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>327</v>
+        <v>236</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="H81" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I81" s="3" t="s">
+      <c r="I81" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J81" s="8">
+      <c r="J81" s="13">
         <v>45520</v>
       </c>
-      <c r="K81" s="3" t="s">
+      <c r="K81" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
@@ -5544,63 +5686,41 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A82" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J82" s="8">
-        <v>45520</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="1"/>
-      <c r="S82" s="1"/>
-      <c r="T82" s="1"/>
-      <c r="U82" s="1"/>
-      <c r="V82" s="1"/>
-      <c r="W82" s="1"/>
-      <c r="X82" s="1"/>
-      <c r="Y82" s="1"/>
-      <c r="Z82" s="1"/>
+    <row r="83" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A83" s="19"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A84" s="14"/>
+      <c r="A84" s="19"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="5"/>
+      <c r="F84" s="10"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -5623,12 +5743,12 @@
       <c r="Z84" s="1"/>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A85" s="14"/>
+      <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="5"/>
+      <c r="F85" s="10"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -5656,7 +5776,7 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="5"/>
+      <c r="F86" s="10"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -5684,7 +5804,7 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="5"/>
+      <c r="F87" s="10"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -5712,7 +5832,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="5"/>
+      <c r="F88" s="10"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -5740,7 +5860,7 @@
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="5"/>
+      <c r="F89" s="10"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -5768,7 +5888,7 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="5"/>
+      <c r="F90" s="10"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -5796,7 +5916,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="5"/>
+      <c r="F91" s="10"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -5824,7 +5944,7 @@
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="5"/>
+      <c r="F92" s="10"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -5852,7 +5972,7 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="5"/>
+      <c r="F93" s="10"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -5880,7 +6000,7 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="5"/>
+      <c r="F94" s="10"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -5908,7 +6028,7 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="5"/>
+      <c r="F95" s="10"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -5936,7 +6056,7 @@
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="5"/>
+      <c r="F96" s="10"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -5964,7 +6084,7 @@
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="5"/>
+      <c r="F97" s="10"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -5992,7 +6112,7 @@
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="5"/>
+      <c r="F98" s="10"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -6020,7 +6140,7 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="5"/>
+      <c r="F99" s="10"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -6048,7 +6168,7 @@
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="5"/>
+      <c r="F100" s="10"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -6076,7 +6196,7 @@
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="5"/>
+      <c r="F101" s="10"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -6104,7 +6224,7 @@
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="5"/>
+      <c r="F102" s="10"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -6132,7 +6252,7 @@
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="5"/>
+      <c r="F103" s="10"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -6160,7 +6280,7 @@
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="5"/>
+      <c r="F104" s="10"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -6188,7 +6308,7 @@
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="5"/>
+      <c r="F105" s="10"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -6216,7 +6336,7 @@
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="5"/>
+      <c r="F106" s="10"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -6244,7 +6364,7 @@
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="5"/>
+      <c r="F107" s="10"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -6272,7 +6392,7 @@
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="5"/>
+      <c r="F108" s="10"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -6300,7 +6420,7 @@
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="5"/>
+      <c r="F109" s="10"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -6328,7 +6448,7 @@
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="5"/>
+      <c r="F110" s="10"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -6356,7 +6476,7 @@
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="5"/>
+      <c r="F111" s="10"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -6384,7 +6504,7 @@
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="5"/>
+      <c r="F112" s="10"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -6412,7 +6532,7 @@
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="5"/>
+      <c r="F113" s="10"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -6440,7 +6560,7 @@
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="5"/>
+      <c r="F114" s="10"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -6468,7 +6588,7 @@
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="5"/>
+      <c r="F115" s="10"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -6496,7 +6616,7 @@
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="5"/>
+      <c r="F116" s="10"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -6524,7 +6644,7 @@
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="5"/>
+      <c r="F117" s="10"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -6552,7 +6672,7 @@
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="5"/>
+      <c r="F118" s="10"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -6580,7 +6700,7 @@
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="5"/>
+      <c r="F119" s="10"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -6608,7 +6728,7 @@
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="5"/>
+      <c r="F120" s="10"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -6636,7 +6756,7 @@
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="5"/>
+      <c r="F121" s="10"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -6664,7 +6784,7 @@
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="5"/>
+      <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -29254,42 +29374,16 @@
       <c r="Y928" s="1"/>
       <c r="Z928" s="1"/>
     </row>
-    <row r="929" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A929" s="1"/>
-      <c r="B929" s="1"/>
-      <c r="C929" s="1"/>
-      <c r="D929" s="1"/>
-      <c r="E929" s="1"/>
-      <c r="F929" s="1"/>
-      <c r="G929" s="1"/>
-      <c r="H929" s="1"/>
-      <c r="I929" s="1"/>
-      <c r="J929" s="1"/>
-      <c r="K929" s="1"/>
-      <c r="L929" s="1"/>
-      <c r="M929" s="1"/>
-      <c r="N929" s="1"/>
-      <c r="O929" s="1"/>
-      <c r="P929" s="1"/>
-      <c r="Q929" s="1"/>
-      <c r="R929" s="1"/>
-      <c r="S929" s="1"/>
-      <c r="T929" s="1"/>
-      <c r="U929" s="1"/>
-      <c r="V929" s="1"/>
-      <c r="W929" s="1"/>
-      <c r="X929" s="1"/>
-      <c r="Y929" s="1"/>
-      <c r="Z929" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="L1:L3"/>
     <mergeCell ref="C2:J2"/>
-    <mergeCell ref="N16:O16"/>
   </mergeCells>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D27" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
